--- a/system/documentos/plantilla_ejemplo_upload_amic.xlsx
+++ b/system/documentos/plantilla_ejemplo_upload_amic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7152"/>
   </bookViews>
   <sheets>
     <sheet name="UNITS" sheetId="2" r:id="rId1"/>
@@ -44,23 +44,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- Valor Numérico de 4 posiciones.</t>
+          <t>- Valor Numérico de 4 posiciones.</t>
         </r>
       </text>
     </comment>
@@ -68,23 +57,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- Valor de la casilla descripción o alias del catálogo de marcas del sistema.
+          <t>- Valor de la casilla descripción o alias del catálogo de marcas del sistema.
 - Debe ser uno existente, en caso de ser nuevo deberá darse de alta primero en el sistema o la casilla se guardara como vaciá. (Ver archivo adjunto con catalogo)</t>
         </r>
       </text>
@@ -93,26 +71,25 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Celina:</t>
+          <t xml:space="preserve">- Máximo 18 Dígitos.
+- Pueden ir o no ir en mayúsculas (El sistema los pasa siempre a Mayúsculas).
+</t>
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-- SIEMPRE DEBE IR COMO PRIMER COLUMNA EL VIN NUMBER
-- Máximo 17 Dígitos.
-- Pueden ir o no ir en mayúsculas (El sistema los pasa siempre a Mayúsculas).
-- Este campo es obligatorio.</t>
+* CAMPO OBLIGATORIO PARA EL SISTEMA.</t>
         </r>
       </text>
     </comment>
@@ -120,23 +97,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Celina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- Insertar solo los valores disponibles. </t>
+          <t>Insertar solo los valores disponibles:
+- 0-50
+- 0-250
+- 0-500
+- 500+
+Campo opcional (puede ir vacio).</t>
         </r>
       </text>
     </comment>
@@ -144,23 +115,30 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Celina:</t>
+          <t>Insertar solo los valores disponibles:
+- TRACTOR
+- UNIT
+- TRAILER
+Campo opcional (puede ir vacio).</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-- Insertar solo los valores disponibles.</t>
+          <t>- Campo para almacenar el valor $$ del vehiculo.
+- Campo opcional (puede ir vacio).</t>
         </r>
       </text>
     </comment>
@@ -178,28 +156,16 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Celina:</t>
+          <t>- De preferencia debe comenzar primero por el last name.
+- No debe contener ningún caracter especial.
+- El sistema automaticamente lo convertira en Mayusculas.
+*</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- De preferencia debe comenzar primero por el last name.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
         <r>
           <rPr>
             <b/>
@@ -208,8 +174,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Celina:</t>
+          <t xml:space="preserve"> CAMPO OBLIGATORIO PARA EL SISTEMA</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -217,8 +187,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-MM/DD/YYYY</t>
+          <t>Formato de fecha: MM/DD/YYYY</t>
         </r>
       </text>
     </comment>
@@ -226,14 +195,30 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Celina:</t>
+          <t xml:space="preserve">- Numero de Licencia del Conductor.
+- No debe contener caracteres especiales.
+</t>
         </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* CAMPO OBLIGATORIO PARA EL SISTEMA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -241,8 +226,35 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-SIEMPRE DEBE IR COMO PRIMER COLUMNA EL NUMERO DE LICENCIA.</t>
+          <t>- Valor Numerico Entero para marcar los años de experiencia.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Formato de fecha: MM/DD/YYYY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insertar solo los valores disponibles:
+- FEDERAL/B1
+- COMMERCIAL/CDL-A</t>
         </r>
       </text>
     </comment>
@@ -251,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
   <si>
     <t>YEAR</t>
   </si>
@@ -369,17 +381,21 @@
   </si>
   <si>
     <t>NOMBRE DE PRUEBA</t>
+  </si>
+  <si>
+    <t>TOTALPREMIUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,13 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -434,28 +443,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,105 +605,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1904</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 4"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="0"/>
-          <a:ext cx="1076325" cy="1904"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="CCFFCC"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="45720" rIns="45720" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0" fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>IMPORTANT: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Do not remove the operator name when you change or delete</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>When choosing the type of movement just enter the date in cell "from" to the history of the policy</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1020,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1033,9 +947,10 @@
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +966,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2002</v>
       </c>
@@ -1068,8 +986,11 @@
       <c r="E2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -1085,8 +1006,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2005</v>
       </c>
@@ -1103,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1999</v>
       </c>
@@ -1120,7 +1044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2003</v>
       </c>
@@ -1137,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2003</v>
       </c>
@@ -1154,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2005</v>
       </c>
@@ -1171,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2001</v>
       </c>
@@ -1188,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2003</v>
       </c>
@@ -1205,7 +1129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2003</v>
       </c>
@@ -1222,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1998</v>
       </c>
@@ -1239,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2003</v>
       </c>
@@ -1256,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2005</v>
       </c>
@@ -1273,7 +1197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1998</v>
       </c>
@@ -1290,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2000</v>
       </c>
@@ -1441,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,11 +1660,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C3:C5 C11:C12 C9 C14:C15" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>